--- a/Báo Cáo/ERD/Đặc tả ERD.xlsx
+++ b/Báo Cáo/ERD/Đặc tả ERD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trant\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3720C835-3F01-4F2C-A8CA-CB78D1F73E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1663758-4DDD-4EE1-84B8-48D763CC734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="213">
   <si>
     <t>Field name</t>
   </si>
@@ -626,6 +626,54 @@
   <si>
     <t>Chứa danh sách các chức năng</t>
   </si>
+  <si>
+    <t>ma_vi</t>
+  </si>
+  <si>
+    <t>mã ví</t>
+  </si>
+  <si>
+    <t>so_du</t>
+  </si>
+  <si>
+    <t>số dư</t>
+  </si>
+  <si>
+    <t>ma_gd</t>
+  </si>
+  <si>
+    <t>mã giao dịch</t>
+  </si>
+  <si>
+    <t>vi_thanh_toan</t>
+  </si>
+  <si>
+    <t>noi_dung_gd</t>
+  </si>
+  <si>
+    <t>nội dung giao dịch</t>
+  </si>
+  <si>
+    <t>so_tien_gd</t>
+  </si>
+  <si>
+    <t>số tiền giao dịch</t>
+  </si>
+  <si>
+    <t>19. vi_thanh_toan</t>
+  </si>
+  <si>
+    <t>20. lich_su_giao_dich</t>
+  </si>
+  <si>
+    <t>Chứa danh sách ví thanh toán</t>
+  </si>
+  <si>
+    <t>Chứa danh sách lịch sử giao dịch</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
 </sst>
 </file>
 
@@ -803,6 +851,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -811,9 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF7D01F-2B17-4ACD-AA2E-CAD07BA1EB35}">
-  <dimension ref="A1:Z1060"/>
+  <dimension ref="A1:Z1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:F61"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1242,13 +1290,13 @@
     </row>
     <row r="4" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1272,13 +1320,13 @@
     </row>
     <row r="5" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1314,7 +1362,7 @@
       <c r="E6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1347,8 +1395,8 @@
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1382,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1415,8 +1463,8 @@
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1449,8 +1497,8 @@
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1483,8 +1531,8 @@
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1508,13 +1556,13 @@
     </row>
     <row r="12" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1538,13 +1586,13 @@
     </row>
     <row r="13" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1768,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1792,13 +1840,13 @@
     </row>
     <row r="20" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1822,13 +1870,13 @@
     </row>
     <row r="21" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1864,7 +1912,7 @@
       <c r="E22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1897,8 +1945,8 @@
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1931,8 +1979,8 @@
       <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1965,8 +2013,8 @@
       <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1999,8 +2047,8 @@
       <c r="D26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2033,8 +2081,8 @@
       <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2058,13 +2106,13 @@
     </row>
     <row r="28" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2088,13 +2136,13 @@
     </row>
     <row r="29" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2130,7 +2178,7 @@
       <c r="E30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2315,8 +2363,8 @@
       <c r="D35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2349,8 +2397,8 @@
       <c r="D36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2383,8 +2431,8 @@
       <c r="D37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2417,8 +2465,8 @@
       <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2451,8 +2499,8 @@
       <c r="D39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2485,8 +2533,8 @@
       <c r="D40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2510,13 +2558,13 @@
     </row>
     <row r="41" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2540,13 +2588,13 @@
     </row>
     <row r="42" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2582,7 +2630,7 @@
       <c r="E43" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2615,8 +2663,8 @@
       <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2649,8 +2697,8 @@
       <c r="D45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2683,8 +2731,8 @@
       <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2717,8 +2765,8 @@
       <c r="D47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2751,8 +2799,8 @@
       <c r="D48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2785,8 +2833,8 @@
       <c r="D49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2810,13 +2858,13 @@
     </row>
     <row r="50" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2840,13 +2888,13 @@
     </row>
     <row r="51" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2882,7 +2930,7 @@
       <c r="E52" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2915,8 +2963,8 @@
       <c r="D53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2950,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2974,13 +3022,13 @@
     </row>
     <row r="55" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3004,13 +3052,13 @@
     </row>
     <row r="56" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3046,7 +3094,7 @@
       <c r="E57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3079,8 +3127,8 @@
       <c r="D58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3113,8 +3161,8 @@
       <c r="D59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3147,8 +3195,8 @@
       <c r="D60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3172,13 +3220,13 @@
     </row>
     <row r="61" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3202,13 +3250,13 @@
     </row>
     <row r="62" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3244,7 +3292,7 @@
       <c r="E63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3315,8 +3363,8 @@
       <c r="D65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3349,8 +3397,8 @@
       <c r="D66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3383,8 +3431,8 @@
       <c r="D67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3417,8 +3465,8 @@
       <c r="D68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3442,13 +3490,13 @@
     </row>
     <row r="69" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3472,13 +3520,13 @@
     </row>
     <row r="70" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3587,7 +3635,7 @@
       <c r="D73" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="7"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3621,8 +3669,8 @@
       <c r="D74" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3646,13 +3694,13 @@
     </row>
     <row r="75" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -3676,13 +3724,13 @@
     </row>
     <row r="76" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -3792,7 +3840,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="7"/>
-      <c r="F79" s="11"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3828,7 +3876,7 @@
       <c r="E80" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F80" s="11"/>
+      <c r="F80" s="8"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3861,7 +3909,7 @@
       <c r="D81" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E81" s="11"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="7"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3886,13 +3934,13 @@
     </row>
     <row r="82" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -3916,13 +3964,13 @@
     </row>
     <row r="83" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -3958,7 +4006,7 @@
       <c r="E84" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F84" s="11"/>
+      <c r="F84" s="8"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -4105,7 +4153,7 @@
       <c r="D88" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="11"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="7"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4139,7 +4187,7 @@
       <c r="D89" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="7"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -4173,7 +4221,7 @@
       <c r="D90" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="11"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="7"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -4207,8 +4255,8 @@
       <c r="D91" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4232,13 +4280,13 @@
     </row>
     <row r="92" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4262,13 +4310,13 @@
     </row>
     <row r="93" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4304,7 +4352,7 @@
       <c r="E94" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F94" s="11"/>
+      <c r="F94" s="8"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -4413,8 +4461,8 @@
       <c r="D97" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4447,8 +4495,8 @@
       <c r="D98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -4481,8 +4529,8 @@
       <c r="D99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4515,8 +4563,8 @@
       <c r="D100" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -4549,8 +4597,8 @@
       <c r="D101" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4583,8 +4631,8 @@
       <c r="D102" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -4608,13 +4656,13 @@
     </row>
     <row r="103" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -4638,13 +4686,13 @@
     </row>
     <row r="104" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -4680,7 +4728,7 @@
       <c r="E105" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F105" s="11"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -4790,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="E108" s="7"/>
-      <c r="F108" s="11"/>
+      <c r="F108" s="8"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -4824,7 +4872,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="7"/>
-      <c r="F109" s="11"/>
+      <c r="F109" s="8"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -4858,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="7"/>
-      <c r="F110" s="11"/>
+      <c r="F110" s="8"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -4892,7 +4940,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="7"/>
-      <c r="F111" s="11"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -4926,7 +4974,7 @@
         <v>15</v>
       </c>
       <c r="E112" s="7"/>
-      <c r="F112" s="11"/>
+      <c r="F112" s="8"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -4960,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="7"/>
-      <c r="F113" s="11"/>
+      <c r="F113" s="8"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -4993,8 +5041,8 @@
       <c r="D114" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -5027,8 +5075,8 @@
       <c r="D115" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -5061,8 +5109,8 @@
       <c r="D116" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -5096,7 +5144,7 @@
         <v>7</v>
       </c>
       <c r="E117" s="7"/>
-      <c r="F117" s="11"/>
+      <c r="F117" s="8"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5129,8 +5177,8 @@
       <c r="D118" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5154,13 +5202,13 @@
     </row>
     <row r="119" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -5184,13 +5232,13 @@
     </row>
     <row r="120" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="11"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -5226,7 +5274,7 @@
       <c r="E121" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F121" s="11"/>
+      <c r="F121" s="8"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -5259,7 +5307,7 @@
       <c r="D122" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="11"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="7"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -5293,8 +5341,8 @@
       <c r="D123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -5318,13 +5366,13 @@
     </row>
     <row r="124" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="11"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -5348,13 +5396,13 @@
     </row>
     <row r="125" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="11"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -5454,13 +5502,13 @@
     </row>
     <row r="128" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="11"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -5484,13 +5532,13 @@
     </row>
     <row r="129" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -5526,7 +5574,7 @@
       <c r="E130" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F130" s="11"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -5635,7 +5683,7 @@
       <c r="D133" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="11"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="7"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -5669,7 +5717,7 @@
       <c r="D134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="11"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="7"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -5703,7 +5751,7 @@
       <c r="D135" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="11"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="7"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -5737,7 +5785,7 @@
       <c r="D136" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E136" s="11"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="7"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -5771,7 +5819,7 @@
       <c r="D137" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="11"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="7"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -5805,7 +5853,7 @@
       <c r="D138" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E138" s="11"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="7"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -5839,7 +5887,7 @@
       <c r="D139" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="11"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="7"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -5873,7 +5921,7 @@
       <c r="D140" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="11"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="7"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -5907,8 +5955,8 @@
       <c r="D141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -5932,13 +5980,13 @@
     </row>
     <row r="142" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="11"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -5962,13 +6010,13 @@
     </row>
     <row r="143" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="11"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6004,7 +6052,7 @@
       <c r="E144" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F144" s="11"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -6109,8 +6157,8 @@
       <c r="D147" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -6134,13 +6182,13 @@
     </row>
     <row r="148" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="11"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -6164,13 +6212,13 @@
     </row>
     <row r="149" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="11"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -6206,7 +6254,7 @@
       <c r="E150" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F150" s="11"/>
+      <c r="F150" s="8"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -6239,7 +6287,7 @@
       <c r="D151" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="11"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="7"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
@@ -6263,12 +6311,14 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="11"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -6291,12 +6341,14 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="11"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -6319,12 +6371,20 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F154" s="8"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -6347,12 +6407,22 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -6375,12 +6445,18 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -6403,12 +6479,14 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="11"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -6431,12 +6509,14 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="11"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -6459,12 +6539,20 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F159" s="8"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -6487,12 +6575,22 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -6515,12 +6613,18 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -6543,12 +6647,18 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -31686,72 +31796,48 @@
       <c r="Y1059" s="2"/>
       <c r="Z1059" s="2"/>
     </row>
-    <row r="1060" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1060" s="2"/>
-      <c r="B1060" s="2"/>
-      <c r="C1060" s="2"/>
-      <c r="D1060" s="2"/>
-      <c r="E1060" s="2"/>
-      <c r="F1060" s="2"/>
-      <c r="G1060" s="2"/>
-      <c r="H1060" s="2"/>
-      <c r="I1060" s="2"/>
-      <c r="J1060" s="2"/>
-      <c r="K1060" s="2"/>
-      <c r="L1060" s="2"/>
-      <c r="M1060" s="2"/>
-      <c r="N1060" s="2"/>
-      <c r="O1060" s="2"/>
-      <c r="P1060" s="2"/>
-      <c r="Q1060" s="2"/>
-      <c r="R1060" s="2"/>
-      <c r="S1060" s="2"/>
-      <c r="T1060" s="2"/>
-      <c r="U1060" s="2"/>
-      <c r="V1060" s="2"/>
-      <c r="W1060" s="2"/>
-      <c r="X1060" s="2"/>
-      <c r="Y1060" s="2"/>
-      <c r="Z1060" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B129:F129"/>
+  <mergeCells count="40">
     <mergeCell ref="B142:F142"/>
     <mergeCell ref="B143:F143"/>
     <mergeCell ref="B148:F148"/>
     <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B119:F119"/>
     <mergeCell ref="B120:F120"/>
     <mergeCell ref="B124:F124"/>
     <mergeCell ref="B125:F125"/>
     <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B82:F82"/>
     <mergeCell ref="B83:F83"/>
     <mergeCell ref="B92:F92"/>
     <mergeCell ref="B93:F93"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B119:F119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Báo Cáo/ERD/Đặc tả ERD.xlsx
+++ b/Báo Cáo/ERD/Đặc tả ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1663758-4DDD-4EE1-84B8-48D763CC734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F0826-F330-4865-A4E9-3B34DA1D2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
   </bookViews>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF7D01F-2B17-4ACD-AA2E-CAD07BA1EB35}">
   <dimension ref="A1:Z1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5305,7 +5305,7 @@
         <v>178</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="7"/>
@@ -31798,30 +31798,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B152:F152"/>
     <mergeCell ref="B153:F153"/>
@@ -31838,6 +31814,30 @@
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B104:F104"/>
     <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Báo Cáo/ERD/Đặc tả ERD.xlsx
+++ b/Báo Cáo/ERD/Đặc tả ERD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F0826-F330-4865-A4E9-3B34DA1D2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610FDCA-E966-42C2-9063-B49B8B906DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF7D01F-2B17-4ACD-AA2E-CAD07BA1EB35}">
   <dimension ref="A1:Z1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2045,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -31798,6 +31798,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B152:F152"/>
     <mergeCell ref="B153:F153"/>
@@ -31814,30 +31838,6 @@
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B104:F104"/>
     <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Báo Cáo/ERD/Đặc tả ERD.xlsx
+++ b/Báo Cáo/ERD/Đặc tả ERD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4610FDCA-E966-42C2-9063-B49B8B906DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB8DEA1-9EFD-4658-A558-6627632D8DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="214">
   <si>
     <t>Field name</t>
   </si>
@@ -674,6 +674,9 @@
   <si>
     <t>text</t>
   </si>
+  <si>
+    <t>Mã chức vụ</t>
+  </si>
 </sst>
 </file>
 
@@ -1177,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF7D01F-2B17-4ACD-AA2E-CAD07BA1EB35}">
-  <dimension ref="A1:Z1059"/>
+  <dimension ref="A1:Z1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1626,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>118</v>
@@ -1664,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>119</v>
@@ -4350,9 +4353,11 @@
         <v>7</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F94" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -5637,20 +5642,16 @@
     <row r="132" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="7"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -5675,10 +5676,10 @@
     <row r="133" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="6" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>10</v>
@@ -5709,10 +5710,10 @@
     <row r="134" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="6" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>10</v>
@@ -5743,13 +5744,13 @@
     <row r="135" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="7"/>
@@ -5777,13 +5778,13 @@
     <row r="136" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="7"/>
@@ -5811,10 +5812,10 @@
     <row r="137" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>10</v>
@@ -5845,10 +5846,10 @@
     <row r="138" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>10</v>
@@ -5879,10 +5880,10 @@
     <row r="139" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>10</v>
@@ -5913,16 +5914,16 @@
     <row r="140" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="6" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E140" s="8"/>
-      <c r="F140" s="7"/>
+      <c r="F140" s="8"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -5946,17 +5947,13 @@
     </row>
     <row r="141" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
-      <c r="B141" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
+      <c r="B141" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="11"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -5981,7 +5978,7 @@
     <row r="142" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -6010,13 +6007,19 @@
     </row>
     <row r="143" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
-      <c r="B143" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="11"/>
+      <c r="B143" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F143" s="8"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -6041,18 +6044,18 @@
     <row r="144" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="6" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F144" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="F144" s="7"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -6077,16 +6080,16 @@
     <row r="145" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="2"/>
@@ -6113,17 +6116,15 @@
     <row r="146" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="6" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="7" t="s">
-        <v>194</v>
-      </c>
+      <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -6681,7 +6682,7 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="2"/>
+      <c r="A163" s="4"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -31796,32 +31797,11 @@
       <c r="Y1059" s="2"/>
       <c r="Z1059" s="2"/>
     </row>
+    <row r="1060" spans="1:26" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1060" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B152:F152"/>
     <mergeCell ref="B153:F153"/>
@@ -31838,6 +31818,30 @@
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="B104:F104"/>
     <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
